--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.36199999999999</v>
+        <v>-11.13889999999999</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.48930000000002</v>
+        <v>-21.45610000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.27950000000001</v>
+        <v>-14.30419999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.509499999999994</v>
+        <v>-8.261699999999992</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.30399999999999</v>
+        <v>11.9466</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.557500000000003</v>
+        <v>-8.738700000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.369300000000008</v>
+        <v>-8.727099999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>12.7594</v>
+        <v>12.61369999999998</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.43259999999998</v>
+        <v>-20.53149999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.94319999999999</v>
+        <v>13.3972</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.27260000000001</v>
+        <v>-21.51520000000002</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.968700000000005</v>
+        <v>-8.026100000000008</v>
       </c>
       <c r="E21" t="n">
-        <v>13.20220000000002</v>
+        <v>13.24560000000002</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.70100000000003</v>
+        <v>-21.37330000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.74440000000004</v>
+        <v>-22.62070000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
